--- a/Лаба 2/Результаты/Полученные результаты/Проверка простой гипотезы/Файлы построенных таблиц по результатам/Хи-квадрат_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Проверка простой гипотезы/Файлы построенных таблиц по результатам/Хи-квадрат_result.xlsx
@@ -617,7 +617,7 @@
         <v>500</v>
       </c>
       <c r="C13" t="n">
-        <v>1.862</v>
+        <v>1.8621</v>
       </c>
       <c r="D13" t="n">
         <v>0.9319</v>
